--- a/QDLogistics/FileUploads/export/box/2019/03/19/IDS (US)-20190319-A/DirectLine.xlsx
+++ b/QDLogistics/FileUploads/export/box/2019/03/19/IDS (US)-20190319-A/DirectLine.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="106">
   <si>
     <t xml:space="preserve">No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,9 @@
     <t xml:space="preserve">FeDex</t>
   </si>
   <si>
+    <t xml:space="preserve">786178335133</t>
+  </si>
+  <si>
     <t xml:space="preserve">9410810899637027493576</t>
   </si>
   <si>
@@ -227,15 +230,27 @@
     <t xml:space="preserve">TW01820190318124813TWPMS</t>
   </si>
   <si>
+    <t xml:space="preserve">9410810899637027584960</t>
+  </si>
+  <si>
     <t xml:space="preserve">TW01820190318124812TWFCS</t>
   </si>
   <si>
+    <t xml:space="preserve">9402110899637027584986</t>
+  </si>
+  <si>
     <t xml:space="preserve">TW01820190319125120TWPMS</t>
   </si>
   <si>
+    <t xml:space="preserve">9410810899637027586605</t>
+  </si>
+  <si>
     <t xml:space="preserve">TW01820190318124496TWPMS</t>
   </si>
   <si>
+    <t xml:space="preserve">786178335512</t>
+  </si>
+  <si>
     <t xml:space="preserve">9410810899637027544247</t>
   </si>
   <si>
@@ -263,6 +278,9 @@
     <t xml:space="preserve">TW01820190319125093TWFCS</t>
   </si>
   <si>
+    <t xml:space="preserve">9402110899637027584948</t>
+  </si>
+  <si>
     <t xml:space="preserve">106005528</t>
   </si>
   <si>
@@ -302,22 +320,37 @@
     <t xml:space="preserve">TW01820190319125095TWFCS</t>
   </si>
   <si>
+    <t xml:space="preserve">9402110899637027584924</t>
+  </si>
+  <si>
     <t xml:space="preserve">106005523</t>
   </si>
   <si>
     <t xml:space="preserve">TW01820190319125121TWPMS</t>
   </si>
   <si>
+    <t xml:space="preserve">9410810899637027586568</t>
+  </si>
+  <si>
     <t xml:space="preserve">TW01820190319125122TWPMS</t>
   </si>
   <si>
+    <t xml:space="preserve">9410810899637027586544</t>
+  </si>
+  <si>
     <t xml:space="preserve">TW01820190319125116TWPMS</t>
   </si>
   <si>
+    <t xml:space="preserve">9410810899637027586865</t>
+  </si>
+  <si>
     <t xml:space="preserve">106023020</t>
   </si>
   <si>
     <t xml:space="preserve">TW01820190319125138TWPMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9410810899637027586377</t>
   </si>
 </sst>
 </file>
@@ -810,7 +843,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>13</v>
@@ -824,12 +857,14 @@
       <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="I3" s="3">
         <v>2</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3" s="3">
         <v>539.98</v>
@@ -843,10 +878,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>13</v>
@@ -860,12 +895,14 @@
       <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="I4" s="3">
         <v>1</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4" s="3">
         <v>272.89</v>
@@ -879,10 +916,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>13</v>
@@ -896,12 +933,14 @@
       <c r="G5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="I5" s="3">
         <v>1</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5" s="3">
         <v>272.89</v>
@@ -915,10 +954,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>13</v>
@@ -932,12 +971,14 @@
       <c r="G6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="I6" s="3">
         <v>1</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K6" s="3">
         <v>928</v>
@@ -951,10 +992,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>13</v>
@@ -968,12 +1009,14 @@
       <c r="G7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="I7" s="3">
         <v>1</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K7" s="3">
         <v>945</v>
@@ -987,10 +1030,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>13</v>
@@ -1004,12 +1047,14 @@
       <c r="G8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="I8" s="3">
         <v>1</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K8" s="3">
         <v>928</v>
@@ -1023,10 +1068,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>13</v>
@@ -1040,12 +1085,14 @@
       <c r="G9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="I9" s="3">
         <v>1</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K9" s="3">
         <v>945</v>
@@ -1059,10 +1106,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>13</v>
@@ -1076,12 +1123,14 @@
       <c r="G10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="I10" s="3">
         <v>1</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K10" s="3">
         <v>279</v>
@@ -1095,10 +1144,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>13</v>
@@ -1112,12 +1161,14 @@
       <c r="G11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="I11" s="3">
         <v>1</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K11" s="3">
         <v>279</v>
@@ -1131,10 +1182,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>13</v>
@@ -1148,12 +1199,14 @@
       <c r="G12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="I12" s="3">
         <v>1</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K12" s="3">
         <v>941.95</v>
@@ -1167,10 +1220,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>13</v>
@@ -1184,12 +1237,14 @@
       <c r="G13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="I13" s="3">
         <v>1</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K13" s="3">
         <v>945</v>
@@ -1203,10 +1258,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>13</v>
@@ -1220,12 +1275,14 @@
       <c r="G14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="I14" s="3">
         <v>1</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K14" s="3">
         <v>928</v>
@@ -1239,10 +1296,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>13</v>
@@ -1256,12 +1313,14 @@
       <c r="G15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="I15" s="3">
         <v>1</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K15" s="3">
         <v>887.29</v>
@@ -1275,10 +1334,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>13</v>
@@ -1292,12 +1351,14 @@
       <c r="G16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="I16" s="3">
         <v>1</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16" s="3">
         <v>272.89</v>
@@ -1311,10 +1372,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>13</v>
@@ -1328,12 +1389,14 @@
       <c r="G17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="I17" s="3">
         <v>1</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K17" s="3">
         <v>887.29</v>
@@ -1347,29 +1410,31 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="3">
+        <v>450</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="3">
-        <v>500</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3">
-        <v>1</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="K18" s="3">
         <v>787.9</v>
@@ -1383,10 +1448,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>13</v>
@@ -1400,12 +1465,14 @@
       <c r="G19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="I19" s="3">
         <v>1</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K19" s="3">
         <v>669</v>
@@ -1419,16 +1486,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="3">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>14</v>
@@ -1436,12 +1503,14 @@
       <c r="G20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="I20" s="3">
         <v>1</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K20" s="3">
         <v>778.05</v>
@@ -1455,16 +1524,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="3">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>14</v>
@@ -1472,12 +1541,14 @@
       <c r="G21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="I21" s="3">
         <v>1</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="3">
         <v>778.05</v>
@@ -1491,16 +1562,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="3">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>14</v>
@@ -1508,12 +1579,14 @@
       <c r="G22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="I22" s="3">
         <v>1</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K22" s="3">
         <v>779</v>
@@ -1527,10 +1600,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>13</v>
@@ -1544,12 +1617,14 @@
       <c r="G23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="I23" s="3">
         <v>1</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K23" s="3">
         <v>926</v>
@@ -1563,16 +1638,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="3">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>14</v>
@@ -1580,11 +1655,15 @@
       <c r="G24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="I24" s="3">
         <v>1</v>
       </c>
-      <c r="J24" s="5"/>
+      <c r="J24" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="K24" s="3">
         <v>778.05</v>
       </c>
@@ -1597,10 +1676,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>13</v>
@@ -1614,11 +1693,15 @@
       <c r="G25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="3"/>
+      <c r="H25" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="I25" s="3">
         <v>1</v>
       </c>
-      <c r="J25" s="5"/>
+      <c r="J25" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="K25" s="3">
         <v>648.59</v>
       </c>
@@ -1631,16 +1714,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="3">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>14</v>
@@ -1648,11 +1731,15 @@
       <c r="G26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="I26" s="3">
         <v>1</v>
       </c>
-      <c r="J26" s="5"/>
+      <c r="J26" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="K26" s="3">
         <v>778.05</v>
       </c>
@@ -1665,10 +1752,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>13</v>
@@ -1682,12 +1769,14 @@
       <c r="G27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="3"/>
+      <c r="H27" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="I27" s="3">
         <v>2</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K27" s="3">
         <v>536</v>
@@ -1701,10 +1790,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>13</v>
@@ -1718,12 +1807,14 @@
       <c r="G28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="3"/>
+      <c r="H28" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="I28" s="3">
         <v>2</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K28" s="3">
         <v>545.78</v>
@@ -1736,7 +1827,7 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="3"/>
@@ -1753,10 +1844,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>13</v>
@@ -1770,12 +1861,14 @@
       <c r="G30" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="3"/>
+      <c r="H30" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="I30" s="3">
         <v>1</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K30" s="3">
         <v>233.39</v>
@@ -1789,10 +1882,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>13</v>
@@ -1806,12 +1899,14 @@
       <c r="G31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="3"/>
+      <c r="H31" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="I31" s="3">
         <v>2</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K31" s="3">
         <v>536</v>
@@ -1825,10 +1920,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>13</v>
@@ -1842,11 +1937,15 @@
       <c r="G32" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="3"/>
+      <c r="H32" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="I32" s="3">
         <v>1</v>
       </c>
-      <c r="J32" s="5"/>
+      <c r="J32" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="K32" s="3">
         <v>137.9</v>
       </c>
@@ -1859,10 +1958,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>13</v>
@@ -1876,12 +1975,14 @@
       <c r="G33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="3"/>
+      <c r="H33" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="I33" s="3">
         <v>1</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K33" s="3">
         <v>409</v>
@@ -1895,10 +1996,10 @@
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>13</v>
@@ -1912,12 +2013,14 @@
       <c r="G34" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="3"/>
+      <c r="H34" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="I34" s="3">
         <v>1</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K34" s="3">
         <v>137.9</v>
@@ -1931,10 +2034,10 @@
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>13</v>
@@ -1948,12 +2051,14 @@
       <c r="G35" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="3"/>
+      <c r="H35" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="I35" s="3">
         <v>1</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K35" s="3">
         <v>887.29</v>
@@ -1967,10 +2072,10 @@
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>13</v>
@@ -1984,12 +2089,14 @@
       <c r="G36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="3"/>
+      <c r="H36" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="I36" s="3">
         <v>1</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K36" s="3">
         <v>219</v>
@@ -2003,10 +2110,10 @@
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>13</v>
@@ -2020,11 +2127,15 @@
       <c r="G37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H37" s="3"/>
+      <c r="H37" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="I37" s="3">
         <v>1</v>
       </c>
-      <c r="J37" s="5"/>
+      <c r="J37" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="K37" s="3">
         <v>272</v>
       </c>
@@ -2037,16 +2148,16 @@
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="3">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>14</v>
@@ -2054,11 +2165,15 @@
       <c r="G38" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="3"/>
+      <c r="H38" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="I38" s="3">
         <v>1</v>
       </c>
-      <c r="J38" s="5"/>
+      <c r="J38" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="K38" s="3">
         <v>778.05</v>
       </c>
@@ -2071,16 +2186,16 @@
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="3">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>14</v>
@@ -2088,11 +2203,15 @@
       <c r="G39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="3"/>
+      <c r="H39" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="I39" s="3">
         <v>1</v>
       </c>
-      <c r="J39" s="5"/>
+      <c r="J39" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="K39" s="3">
         <v>778.05</v>
       </c>
@@ -2105,10 +2224,10 @@
         <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>13</v>
@@ -2122,11 +2241,15 @@
       <c r="G40" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="3"/>
+      <c r="H40" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="I40" s="3">
         <v>1</v>
       </c>
-      <c r="J40" s="5"/>
+      <c r="J40" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="K40" s="3">
         <v>329</v>
       </c>
@@ -2139,16 +2262,16 @@
         <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="3">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>14</v>
@@ -2156,11 +2279,15 @@
       <c r="G41" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="3"/>
+      <c r="H41" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="I41" s="3">
         <v>1</v>
       </c>
-      <c r="J41" s="5"/>
+      <c r="J41" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="K41" s="3">
         <v>778.05</v>
       </c>
